--- a/Tests_CFA.xlsx
+++ b/Tests_CFA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Github Repositories\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7C36FA-D159-4456-B2D8-E5683FED0B73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AC06C0-FE7F-46DC-B802-98E9B1D9EC1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="152">
   <si>
     <t>Basic Information</t>
   </si>
@@ -340,9 +340,6 @@
     <t xml:space="preserve">latent variables: identical; SRMR, RMSEA, TLI, CFI identical </t>
   </si>
   <si>
-    <t>simulated dataset</t>
-  </si>
-  <si>
     <t>chi2, SRMR, RMSEA, TLI: same range; CFI: identical</t>
   </si>
   <si>
@@ -620,10 +617,22 @@
     <t>model without sex</t>
   </si>
   <si>
-    <t>Errors in R-code</t>
-  </si>
-  <si>
-    <t>Some of the latent variable variances are estimated instead of fixed to 1. The model is re-estimated by scaling the latent variables by fixing their variances and freeing all factor loadings.</t>
+    <t>Errors in PDF/R-code</t>
+  </si>
+  <si>
+    <t>GPL: https://cran.r-project.org/web/packages/lavaan/lavaan.pdf</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>calibrated to non-continuous</t>
+  </si>
+  <si>
+    <t>Dataset permisisons/License Information</t>
+  </si>
+  <si>
+    <t>Public download / no license specified</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1347,11 +1356,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1376,6 +1404,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1459,30 +1490,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1801,10 +1808,10 @@
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1826,111 +1833,111 @@
     <col min="15" max="15" width="23.140625" style="2" customWidth="1"/>
     <col min="16" max="16" width="22.140625" style="2" customWidth="1"/>
     <col min="17" max="17" width="34.7109375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="34.42578125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="5" customWidth="1"/>
     <col min="19" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="64" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="R1" s="43" t="s">
-        <v>147</v>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="R1" s="56" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="67" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="69" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="77" t="s">
+      <c r="L2" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="73" t="s">
+      <c r="O2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="75" t="s">
+      <c r="P2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="56"/>
     </row>
     <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="29" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="56"/>
     </row>
     <row r="4" spans="1:18" s="9" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
@@ -1977,11 +1984,11 @@
       <c r="P4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="56"/>
     </row>
     <row r="5" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="63" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -1991,7 +1998,7 @@
       <c r="D5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="40" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="11"/>
@@ -2022,12 +2029,14 @@
         <v>22</v>
       </c>
       <c r="Q5" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="R5" s="40"/>
-    </row>
-    <row r="6" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+        <v>121</v>
+      </c>
+      <c r="R5" s="39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="64"/>
       <c r="B6" s="16" t="s">
         <v>11</v>
       </c>
@@ -2072,12 +2081,14 @@
         <v>17</v>
       </c>
       <c r="Q6" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="R6" s="32"/>
+        <v>149</v>
+      </c>
+      <c r="R6" s="39" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
@@ -2120,64 +2131,64 @@
         <v>47</v>
       </c>
       <c r="Q7" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="R7" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="R7" s="39" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="8" t="s">
+      <c r="L8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="O8" s="66"/>
+      <c r="P8" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="O8" s="60"/>
-      <c r="P8" s="24" t="s">
-        <v>58</v>
-      </c>
       <c r="Q8" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="R8" s="39"/>
+        <v>122</v>
+      </c>
+      <c r="R8" s="39" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
@@ -2186,28 +2197,28 @@
         <v>50</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6"/>
       <c r="I9" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>48</v>
@@ -2216,14 +2227,14 @@
         <v>48</v>
       </c>
       <c r="Q9" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="R9" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="R9" s="39" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
@@ -2242,65 +2253,67 @@
       <c r="O10" s="34"/>
       <c r="P10" s="35"/>
       <c r="Q10" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="R10" s="30"/>
+        <v>121</v>
+      </c>
+      <c r="R10" s="39" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="17" t="s">
         <v>48</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="N11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="N11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O11" s="83" t="s">
-        <v>138</v>
-      </c>
       <c r="P11" s="23" t="s">
         <v>48</v>
       </c>
       <c r="Q11" s="30"/>
-      <c r="R11" s="41" t="s">
-        <v>148</v>
+      <c r="R11" s="39" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -2320,85 +2333,87 @@
         <v>48</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="R12" s="41" t="s">
-        <v>148</v>
+        <v>123</v>
+      </c>
+      <c r="R12" s="39" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="N13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="7" t="s">
+      <c r="Q13" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="R13" s="39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="64"/>
+      <c r="B14" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P13" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="R13" s="32"/>
-    </row>
-    <row r="14" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
-      <c r="B14" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -2415,11 +2430,11 @@
         <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M14" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="N14" s="6" t="s">
         <v>48</v>
       </c>
@@ -2430,41 +2445,43 @@
         <v>48</v>
       </c>
       <c r="Q14" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="R14" s="39"/>
-    </row>
-    <row r="15" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
+        <v>149</v>
+      </c>
+      <c r="R14" s="39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="64"/>
       <c r="B15" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="83" t="s">
+      <c r="H15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="M15" s="6" t="s">
         <v>48</v>
       </c>
@@ -2478,21 +2495,23 @@
         <v>48</v>
       </c>
       <c r="Q15" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="R15" s="39"/>
-    </row>
-    <row r="16" spans="1:18" s="19" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
+        <v>149</v>
+      </c>
+      <c r="R15" s="39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="19" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="64"/>
       <c r="B16" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -2509,7 +2528,7 @@
         <v>50</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M16" s="17" t="s">
         <v>48</v>
@@ -2524,14 +2543,16 @@
         <v>50</v>
       </c>
       <c r="Q16" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="R16" s="39"/>
+        <v>128</v>
+      </c>
+      <c r="R16" s="39" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="17" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="6" t="s">
@@ -2541,7 +2562,7 @@
         <v>48</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>48</v>
@@ -2562,7 +2583,7 @@
         <v>48</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>48</v>
@@ -2574,17 +2595,19 @@
         <v>48</v>
       </c>
       <c r="Q17" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="R17" s="32"/>
-    </row>
-    <row r="18" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
+        <v>149</v>
+      </c>
+      <c r="R17" s="39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="64"/>
       <c r="B18" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="83" t="s">
-        <v>121</v>
+        <v>96</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>120</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -2600,21 +2623,23 @@
       <c r="O18" s="6"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="R18" s="39"/>
-    </row>
-    <row r="19" spans="1:18" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
+        <v>149</v>
+      </c>
+      <c r="R18" s="39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="64"/>
       <c r="B19" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -2628,21 +2653,23 @@
       <c r="O19" s="6"/>
       <c r="P19" s="22"/>
       <c r="Q19" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="R19" s="39"/>
-    </row>
-    <row r="20" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
+        <v>149</v>
+      </c>
+      <c r="R19" s="39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="64"/>
       <c r="B20" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>48</v>
@@ -2676,44 +2703,46 @@
         <v>48</v>
       </c>
       <c r="Q20" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="R20" s="39"/>
-    </row>
-    <row r="21" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
+        <v>149</v>
+      </c>
+      <c r="R20" s="39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="64"/>
       <c r="B21" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="N21" s="6" t="s">
         <v>50</v>
       </c>
@@ -2724,19 +2753,21 @@
         <v>50</v>
       </c>
       <c r="Q21" s="30"/>
-      <c r="R21" s="39"/>
-    </row>
-    <row r="22" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
+      <c r="R21" s="39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="64"/>
       <c r="B22" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="6" t="s">
@@ -2767,24 +2798,26 @@
         <v>48</v>
       </c>
       <c r="P22" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="R22" s="39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="58.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="64"/>
+      <c r="B23" s="20" t="s">
         <v>101</v>
-      </c>
-      <c r="Q22" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="R22" s="39"/>
-    </row>
-    <row r="23" spans="1:18" ht="58.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="58"/>
-      <c r="B23" s="20" t="s">
-        <v>102</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -2816,27 +2849,29 @@
         <v>48</v>
       </c>
       <c r="Q23" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="R23" s="30"/>
+        <v>121</v>
+      </c>
+      <c r="R23" s="39" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="24" spans="1:18" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="58"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>48</v>
@@ -2864,19 +2899,21 @@
       </c>
       <c r="P24" s="24"/>
       <c r="Q24" s="30"/>
-      <c r="R24" s="36"/>
+      <c r="R24" s="39" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="25" spans="1:18" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="6" t="s">
@@ -2907,30 +2944,32 @@
         <v>50</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q25" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="R25" s="39"/>
+        <v>124</v>
+      </c>
+      <c r="R25" s="39" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="26" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>50</v>
@@ -2960,46 +2999,48 @@
         <v>50</v>
       </c>
       <c r="Q26" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="R26" s="39"/>
+        <v>125</v>
+      </c>
+      <c r="R26" s="39" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="27" spans="1:18" ht="52.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="58"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="N27" s="6" t="s">
         <v>50</v>
       </c>
@@ -3010,17 +3051,19 @@
         <v>50</v>
       </c>
       <c r="Q27" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="R27" s="39"/>
+        <v>126</v>
+      </c>
+      <c r="R27" s="39" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="28" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="58"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="86" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>115</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -3036,24 +3079,26 @@
       <c r="O28" s="6"/>
       <c r="P28" s="22"/>
       <c r="Q28" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="R28" s="39"/>
+        <v>145</v>
+      </c>
+      <c r="R28" s="39" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="29" spans="1:18" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="58"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="85" t="s">
-        <v>120</v>
+      <c r="E29" s="43" t="s">
+        <v>119</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G29" s="26"/>
       <c r="H29" s="27" t="s">
@@ -3072,52 +3117,56 @@
         <v>50</v>
       </c>
       <c r="M29" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="N29" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="O29" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="N29" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="O29" s="26" t="s">
-        <v>119</v>
-      </c>
       <c r="P29" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q29" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="R29" s="39"/>
-    </row>
-    <row r="30" spans="1:18" ht="38.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="58"/>
+        <v>142</v>
+      </c>
+      <c r="R29" s="39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="64"/>
       <c r="B30" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="R30" s="39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="64"/>
+      <c r="B31" s="20" t="s">
         <v>131</v>
-      </c>
-      <c r="C30" s="79" t="s">
-        <v>139</v>
-      </c>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="R30" s="40"/>
-    </row>
-    <row r="31" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="58"/>
-      <c r="B31" s="20" t="s">
-        <v>132</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="34" t="s">
@@ -3142,24 +3191,26 @@
         <v>50</v>
       </c>
       <c r="M31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="N31" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="N31" s="7" t="s">
+      <c r="O31" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="P31" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="64"/>
+      <c r="B32" s="37" t="s">
         <v>141</v>
-      </c>
-      <c r="O31" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="P31" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="40"/>
-    </row>
-    <row r="32" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="58"/>
-      <c r="B32" s="37" t="s">
-        <v>142</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="17"/>
@@ -3176,12 +3227,14 @@
       <c r="O32" s="32"/>
       <c r="P32" s="32"/>
       <c r="Q32" s="30"/>
-      <c r="R32" s="42"/>
+      <c r="R32" s="39" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="33" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="58"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
@@ -3198,12 +3251,14 @@
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
       <c r="Q33" s="30"/>
-      <c r="R33" s="40"/>
+      <c r="R33" s="39" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="34" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="58"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -3220,11 +3275,13 @@
       <c r="O34" s="39"/>
       <c r="P34" s="39"/>
       <c r="Q34" s="30"/>
-      <c r="R34" s="40"/>
-    </row>
-    <row r="35" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R34" s="39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -3241,9 +3298,11 @@
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="R35" s="40"/>
+        <v>149</v>
+      </c>
+      <c r="R35" s="39" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="36" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="4"/>
@@ -3301,6 +3360,7 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="R1:R4"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="A5:A34"/>
@@ -3317,7 +3377,6 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="C30:P30"/>
-    <mergeCell ref="R1:R4"/>
     <mergeCell ref="Q1:Q4"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>

--- a/Tests_CFA.xlsx
+++ b/Tests_CFA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Github Repositories\Confirmatory-factor-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\Statsomat\Github Repositories\CFA-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AC06C0-FE7F-46DC-B802-98E9B1D9EC1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B9D461-4042-43C4-B057-EF732ABE2B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
@@ -1371,6 +1371,99 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1392,103 +1485,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1811,7 +1811,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1838,106 +1838,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="70" t="s">
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="48" t="s">
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="45" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="73" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="75" t="s">
+      <c r="G2" s="84"/>
+      <c r="H2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="77" t="s">
+      <c r="K2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="83" t="s">
+      <c r="L2" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="M2" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="N2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="79" t="s">
+      <c r="O2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="81" t="s">
+      <c r="P2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="56"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="45"/>
     </row>
     <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="29" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="56"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" spans="1:18" s="9" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
@@ -1984,11 +1984,11 @@
       <c r="P4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="56"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="45"/>
     </row>
     <row r="5" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="52" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -2036,7 +2036,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="16" t="s">
         <v>11</v>
       </c>
@@ -2088,7 +2088,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="64"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
@@ -2138,7 +2138,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
@@ -2173,10 +2173,10 @@
       <c r="M8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="65" t="s">
+      <c r="N8" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="O8" s="66"/>
+      <c r="O8" s="55"/>
       <c r="P8" s="24" t="s">
         <v>57</v>
       </c>
@@ -2188,7 +2188,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
@@ -2234,7 +2234,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="64"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
@@ -2260,7 +2260,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="16" t="s">
         <v>129</v>
       </c>
@@ -2304,7 +2304,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="64"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="16" t="s">
         <v>68</v>
       </c>
@@ -2352,7 +2352,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="64"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="16" t="s">
         <v>69</v>
       </c>
@@ -2404,7 +2404,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="64"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="16" t="s">
         <v>74</v>
       </c>
@@ -2452,7 +2452,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="16" t="s">
         <v>82</v>
       </c>
@@ -2502,7 +2502,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" s="19" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="18" t="s">
         <v>85</v>
       </c>
@@ -2550,7 +2550,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="64"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="16" t="s">
         <v>83</v>
       </c>
@@ -2602,7 +2602,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="64"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="16" t="s">
         <v>96</v>
       </c>
@@ -2630,7 +2630,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="64"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="16" t="s">
         <v>97</v>
       </c>
@@ -2660,7 +2660,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="16" t="s">
         <v>87</v>
       </c>
@@ -2710,7 +2710,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="64"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="16" t="s">
         <v>89</v>
       </c>
@@ -2758,7 +2758,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="64"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="20" t="s">
         <v>98</v>
       </c>
@@ -2808,7 +2808,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="58.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="64"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
@@ -2856,7 +2856,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="64"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="20" t="s">
         <v>103</v>
       </c>
@@ -2904,7 +2904,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="64"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="20" t="s">
         <v>106</v>
       </c>
@@ -2954,7 +2954,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="64"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="20" t="s">
         <v>107</v>
       </c>
@@ -3006,7 +3006,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="52.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="64"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="20" t="s">
         <v>112</v>
       </c>
@@ -3058,7 +3058,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="64"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="20" t="s">
         <v>113</v>
       </c>
@@ -3086,7 +3086,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="64"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="25" t="s">
         <v>114</v>
       </c>
@@ -3136,26 +3136,26 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="64"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="47"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="78"/>
       <c r="Q30" s="32" t="s">
         <v>149</v>
       </c>
@@ -3164,7 +3164,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="64"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="20" t="s">
         <v>131</v>
       </c>
@@ -3208,7 +3208,7 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="64"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="37" t="s">
         <v>141</v>
       </c>
@@ -3232,7 +3232,7 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="64"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="37" t="s">
         <v>132</v>
       </c>
@@ -3256,7 +3256,7 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="64"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="20" t="s">
         <v>143</v>
       </c>
@@ -3360,6 +3360,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C30:P30"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="R1:R4"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
@@ -3376,12 +3382,6 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="C30:P30"/>
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
